--- a/gd/音乐音效相关/音乐音效逻辑.xlsx
+++ b/gd/音乐音效相关/音乐音效逻辑.xlsx
@@ -1,35 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="音乐音效逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="配置方式" sheetId="3" r:id="rId3"/>
-    <sheet name="拆分任务" sheetId="4" r:id="rId4"/>
+    <sheet name="音效验收" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="背景音乐由程序直接写在代码中">配置方式!$D$29:$D$30</definedName>
-    <definedName name="播放规则">音乐音效逻辑!$E$82:$F$84</definedName>
-    <definedName name="触发UI音效的控件单独配置音效">配置方式!$E$43:$E$45</definedName>
+    <definedName name="播放规则">音乐音效逻辑!$E$88:$F$90</definedName>
     <definedName name="当某个怪使用技能时_限定技能为大招技能与BOSS技能_复用技能不需要施法语音_设计避免即可__播放的音效">音乐音效逻辑!$H$59</definedName>
-    <definedName name="施法语音无多语言需求_无论切换何种语言_只播放一种语音">音乐音效逻辑!$H$62</definedName>
-    <definedName name="受击音效为怪物发出的音效_并非所有怪物都有_可能考虑稀有怪物或者有特点的怪物">音乐音效逻辑!#REF!</definedName>
-    <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量">音乐音效逻辑!#REF!</definedName>
-    <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量__受到治疗或者未命中_实际未扣除血量_不播放受击音效">音乐音效逻辑!#REF!</definedName>
-    <definedName name="在animation.xml中对应的技能下增加soundlist进行配置">配置方式!$D$48:$K$59</definedName>
-    <definedName name="在instance.csv表中增加1列backgroundmusic用于配置音乐编号">配置方式!$E$34:$E$35</definedName>
+    <definedName name="受击音效为怪物发出的音效_并非所有怪物都有_可能考虑稀有怪物或者有特点的怪物">音乐音效逻辑!$H$67</definedName>
+    <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量">音乐音效逻辑!$H$64</definedName>
+    <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量__受到治疗或者未命中_实际未扣除血量_不播放受击音效">音乐音效逻辑!$H$64</definedName>
+    <definedName name="在animation.xml中对应的技能下增加soundlist进行配置">配置方式!$D$67:$K$78</definedName>
+    <definedName name="在instance.csv表中增加1列backgroundmusic用于配置音乐编号">配置方式!$E$39:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="289">
   <si>
     <t>文档名称</t>
   </si>
@@ -153,6 +150,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>弹出结算界面前，视为副本音乐结束，结束播放时有0.5s淡出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>音效相关逻辑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -237,6 +238,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当某个怪受到攻击时，播放的音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>音效与技能的效果相关联，区分弱中强，法术与物理，同时物理分为点、划、砸三类</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -253,6 +262,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>默认无受击音效，当某类怪物有需求时，可以配置受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效根据怪物配置，每个怪物只有一种受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>事件音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -324,6 +341,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>结算界面出现后播放结算部分音乐，播放结算音乐时有0.5s淡入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算音乐播放至副本完全退出后结束播放，结束播放时有0.5s淡出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>副本中音乐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -372,6 +397,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>UI音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -412,6 +441,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>在登录界面配置表中增加1列backgroundmusic用于配置音乐编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体等待登录界面制作完成后补充完整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主界面配置表中增加1列backgroundmusic用于配置音乐编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>副本中音乐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -424,6 +465,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>具体等待主界面制作完成后补充完整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>具体等待结算部分界面制作完成后补充完整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -440,10 +485,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>表格形式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>soundID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立SoundData.csv用于UI音效部分内容配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的UI控件名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件相关操作的事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>为方便音乐音效管理，建立soundinfo.csv，所有声音文件都在这里记录，通关对应ID编号进行调取使用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -452,6 +533,34 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>控件事件包括</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundshow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundhide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundclick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>技能音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,10 +577,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在unitData.csv表中增加1列hitsound，用于配置音乐编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对应目标被攻击时即可播放对应受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>事件音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>同UI音效配置形式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>如</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -520,6 +645,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>受击音效为怪物发出的音效，并非所有怪物都有（可能考虑稀有怪物或者有特点的怪物）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>3fat</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -540,6 +669,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>assetID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>技能施法、命中音效配置方式变更</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -668,6 +801,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>命中音效与受击音效一起播，是不是有点重复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效播放时间点与受击时间点一致？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>这个让程序试一下再定吧</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -684,6 +825,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>前面说是某只怪放某个技能，这里又跟着技能走了？那岂不成了施法音效了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有受到攻击才播放么(damageeffct)？受治疗不会？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>技能的施法音效和命中音效属于事件音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -712,6 +861,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>并不</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>boss才有，而且不是全有</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -724,6 +877,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>可以延迟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>不用了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -740,6 +897,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>都是特定技能的时候用的，所以和技能走</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>好</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -752,6 +913,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">&lt;Audio time="0" AudioID="路径" /&gt; </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>在animation.xml中对应的技能下通过AudioList进行配置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -832,35 +997,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>配饰规范施法语音的适用范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在instance.csv表中增加1列backgroundmusic用于配置音乐编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当进入对应副本后即可按照需求播放对应背景音乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改副本音乐根据副本配置，不根据对局配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确受击音效的触发条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AudioID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Audio time="0" AudioID="资源ID" /&gt; </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>背景音乐同时只会播放一首，当切换背景/场景时，</t>
+      <t>当某个怪使用技能时</t>
     </r>
     <r>
       <rPr>
@@ -870,152 +1008,179 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>前一首音乐停止，后一首音乐开始播放</t>
+      <t>(限定技能为大招技能与BOSS技能，复用技能不需要施法语音，设计避免即可)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出结算界面前，视为副本音乐结束，副本音乐停止播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面出现后播放结算部分音乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算音乐播放至副本完全退出后结束播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入副本后（开始loading界面），即视为副本开始，副本音乐开始播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当某个怪使用技能时(限定技能为大招技能与BOSS技能，复用技能不需要施法语音，设计避免即可)，播放的音效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消淡入淡出需求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法语音无多语言需求，无论切换何种语言，只播放一种语音</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法语音不区分多语言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI音效配置方式变更为Unity中挂脚本配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消受击音效（等待受击事件确定后决定是否需要）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中音效是否用受击代替</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐音效需求表格式确定下</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc、程序、木木</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确文档需求，问题解答</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要程序提供脚本，挂到对应perfab中，在对应事件后填写soundID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发UI音效的控件单独配置音效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前版本无法确定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见《资源存放规则与提交流程》文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件动画不会影响背景音乐播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改对局文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同技能音效配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐音效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.音乐音效管理器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.配置表读取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.UI音效组件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.背景音乐，音效播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐由程序直接写在代码中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各系统如果有特殊需求，需要在各自文档中体现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>变更背景音乐配置方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.3.001</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，播放的音效</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配饰规范施法语音的适用范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在instance.csv表中增加1列backgroundmusic用于配置音乐编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当进入对应副本后即可按照需求播放对应背景音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改副本音乐根据副本配置，不根据对局配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效只有当目标受到伤害时才会播放（实际扣除血量），受到治疗或者未命中（实际未扣除血量）不播放受击音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确受击音效的触发条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐同时只会播放一首，当切换背景/场景时，前一首音乐0.5s淡出，后一首音乐0.5s淡入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本后（开始loading界面），即视为副本开始，播放副本音乐时有0.5s淡入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要id命名规范</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本部分未新增backgroundmusic用于配置背景音乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面，登录界面0.4版本暂时不需要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示类界面需要提特殊需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>见对局文档动画配置说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前受次播放音效时有卡顿现象，不明确凿原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合设计需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击类事件需要再相应prefab中加载script，并通过id调用soundinfo中相应音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击类事件分为：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包时放在music下（跟瑱瑱对过后产生结论，此条尚未实现）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/18验收结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写资源名称，目前资源在bundle中都放在sound下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择PlayerUnitUI这个prefab中的DazhaoBtn（大招按钮）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在属性中加入PlaySound脚本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundtype分为，UI/Tips/Click，暂时只有Click有用，表示点击该控件响应范围时会发出音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click Sound 对应文本框内填写相应音效id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundinfo.csv说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本中sound type下拉菜单展开如下：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试音效id为test，调用stab音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1240,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1100,6 +1278,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1132,20 +1317,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -1397,7 +1587,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1431,13 +1621,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="77" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,9 +1663,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="77" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="81" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1459,93 +1680,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="81" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="81" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="81" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1692,8 +1889,154 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1552575" y="2981325"/>
+          <a:ext cx="3905250" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="5143500"/>
+          <a:ext cx="2552700" cy="7410450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1714500" y="13020675"/>
+          <a:ext cx="2657475" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1767,7 +2110,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1802,7 +2144,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1978,401 +2319,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="13.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="B8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickTop="1">
+      <c r="B12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="C17" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="H21" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="12">
         <v>42213</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="27"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="27"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="H25" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="27">
+    <row r="24" spans="1:8" ht="17.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="12">
         <v>42215</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="27"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="H27" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="27"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="27"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="H29" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="D26" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="27">
-        <v>42216</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="27"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="27"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="17.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="H28" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="28">
-        <v>42216</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="K34" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F35" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F36" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F37" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F38" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F39" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F40" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F41" s="16"/>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F42" s="16"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2393,634 +2648,679 @@
     <hyperlink ref="H27" location="当某个怪使用技能时_限定技能为大招技能与BOSS技能_复用技能不需要施法语音_设计避免即可__播放的音效" display="配饰规范施法语音的适用范围"/>
     <hyperlink ref="H28" location="在instance.csv表中增加1列backgroundmusic用于配置音乐编号" display="修改副本音乐根据副本配置，不根据对局配置"/>
     <hyperlink ref="H29" location="受击音效只有当目标受到伤害时才会播放_实际扣除血量__受到治疗或者未命中_实际未扣除血量_不播放受击音效" display="明确受击音效的触发条件"/>
-    <hyperlink ref="K35" location="施法语音无多语言需求_无论切换何种语言_只播放一种语音" display="已修改"/>
-    <hyperlink ref="K36" location="触发UI音效的控件单独配置音效" display="已修改"/>
-    <hyperlink ref="H30" location="背景音乐由程序直接写在代码中" display="变更背景音乐配置方式"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:R90"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="22" hidden="1" customWidth="1"/>
     <col min="2" max="3" width="27.125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
+    <col min="4" max="4" width="9" style="16"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:7">
+      <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="D7" s="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="A7" s="22"/>
+      <c r="D7" s="16"/>
       <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="D8" s="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="A8" s="22"/>
+      <c r="D8" s="16"/>
       <c r="F8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="A9" s="22"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1">
+      <c r="A13" s="22"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="A14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="A15" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="33">
+      <c r="A16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="22"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="G15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="13" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="49.5">
+      <c r="A20" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7">
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:7" ht="49.5">
+      <c r="A23" s="22" t="s">
         <v>191</v>
       </c>
+      <c r="B23" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="A24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="A25" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="49.5">
+      <c r="A27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1">
+      <c r="A29" s="22"/>
+      <c r="D29" s="16"/>
+      <c r="F29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1">
+      <c r="A31" s="22"/>
+      <c r="D31" s="16"/>
+      <c r="G31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="D33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="G37" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="15"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="G38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="15"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="G40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="G41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P43" s="15"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="B44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="F46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="33">
+      <c r="A47" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="G52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1">
+      <c r="A53" s="22"/>
+      <c r="D53" s="16"/>
+      <c r="H53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1">
+      <c r="A54" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="H54" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="G55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1">
+      <c r="A56" s="22"/>
+      <c r="D56" s="16"/>
+      <c r="H56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1">
+      <c r="A57" s="22"/>
+      <c r="C57" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="H57" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="33">
+      <c r="A59" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="49.5">
+      <c r="A60" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="H60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="49.5">
+      <c r="A61" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="H61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="33">
+      <c r="A62" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="49.5">
+      <c r="A63" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1">
+      <c r="A64" s="22"/>
+      <c r="B64" s="27"/>
+      <c r="D64" s="16"/>
+      <c r="H64" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1">
+      <c r="A65" s="22"/>
+      <c r="D65" s="16"/>
+      <c r="H65" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="33">
+      <c r="A66" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="H66" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1">
+      <c r="A67" s="22"/>
+      <c r="D67" s="16"/>
+      <c r="H67" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="33">
+      <c r="A69" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="G71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="G72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="G73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="F75" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E49" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="D53" s="6"/>
-      <c r="H53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="H54" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="D56" s="6"/>
-      <c r="H56" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="C57" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="H57" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="H60" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="H61" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="14"/>
-      <c r="D62" s="6"/>
-      <c r="H62" s="7" t="s">
+    <row r="77" spans="1:8">
+      <c r="B77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1">
+      <c r="A79" s="22"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="2" customFormat="1">
+      <c r="A80" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="F80" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="2" customFormat="1">
+      <c r="A81" s="22"/>
+      <c r="D81" s="16"/>
+      <c r="F81" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="2" customFormat="1">
+      <c r="A82" s="22"/>
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="1:18" s="2" customFormat="1">
+      <c r="A83" s="22"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="2" customFormat="1">
+      <c r="A84" s="22"/>
+      <c r="D84" s="16"/>
+      <c r="F84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+    </row>
+    <row r="86" spans="1:18" s="2" customFormat="1">
+      <c r="A86" s="22"/>
+      <c r="D86" s="16"/>
+      <c r="F86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="C87" s="27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D72" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="F74" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-      <c r="D75" s="6"/>
-      <c r="F75" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="D78" s="6"/>
-      <c r="F78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="D80" s="6"/>
-      <c r="F80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C81" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16" t="s">
-        <v>174</v>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="B88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="29"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="E89" s="29"/>
+      <c r="F89" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" ht="33">
+      <c r="A90" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3330,7 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A47 A49:A58 A60:A195">
+  <conditionalFormatting sqref="A1:A47 A49:A58 A60:A201">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
@@ -3055,397 +3355,564 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="22" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
+    <col min="3" max="3" width="9" style="16"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6">
+      <c r="C1" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
       <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="E6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="F11" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="E12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="E15" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="F16" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="F17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="F19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="G21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="G22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="F24" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="G25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="G26" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="C28" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="D29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="E30" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F24" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D29" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D30" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="J30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="C32" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+    <row r="31" spans="1:16">
+      <c r="E31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="23"/>
+      <c r="J32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="23"/>
       <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="23"/>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="23"/>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="23"/>
+      <c r="C37" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="23"/>
+      <c r="D38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="49.5">
+      <c r="A39" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="23"/>
+      <c r="E40" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="23"/>
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="33">
+      <c r="A43" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="23"/>
+      <c r="E44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="23"/>
+      <c r="C46" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="23"/>
+      <c r="D47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="23"/>
+      <c r="E48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="23"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="23"/>
+      <c r="E50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="23"/>
+      <c r="F51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="23"/>
+      <c r="F52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="23"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="23"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="23"/>
+      <c r="F55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="23"/>
+      <c r="F56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="23"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="23"/>
+      <c r="G58" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="23"/>
+      <c r="H59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="23"/>
+      <c r="H60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="23"/>
+      <c r="H61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="23"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="23"/>
+      <c r="F63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="23"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="23"/>
+      <c r="C65" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="23"/>
+      <c r="D66" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="23"/>
+      <c r="D67" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="23"/>
+      <c r="D68" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="D69" s="29"/>
+      <c r="E69" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+    </row>
+    <row r="70" spans="1:9" ht="33">
+      <c r="A70" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="23"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="23"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="23"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="23"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="23"/>
+      <c r="B75" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="23"/>
+      <c r="B76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="E35" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="E39" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="C41" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="E43" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="E44" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="E45" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="C46" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="D47" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="D48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="D49" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="16"/>
-      <c r="E50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D61" s="2" t="s">
-        <v>237</v>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="23"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="29"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+    </row>
+    <row r="80" spans="1:9" ht="49.5">
+      <c r="A80" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="D84" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="D85" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="D88" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3922,7 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A1048576 A1:A49">
+  <conditionalFormatting sqref="A1:A68 A70:A1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
@@ -3465,57 +3932,359 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="49" customFormat="1">
+      <c r="A1" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>239</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16"/>
+      <c r="C10" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16"/>
+      <c r="D11" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16"/>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16"/>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16"/>
+      <c r="C24" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="16"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="16"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="16"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="16"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="16"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="16"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="16"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="16"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="16"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="16"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="16"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="16"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="16"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="16"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="16"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="16"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="16"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="16"/>
+      <c r="C62" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="16"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="16"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="16"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="16"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="16"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="16"/>
+      <c r="C69" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="16"/>
+      <c r="C70" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="16"/>
+      <c r="C72" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="16"/>
+      <c r="D73" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="16"/>
+      <c r="D74" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="16"/>
+      <c r="D75" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="16"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="16"/>
+      <c r="C77" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gd/音乐音效相关/音乐音效逻辑.xlsx
+++ b/gd/音乐音效相关/音乐音效逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -14,23 +14,23 @@
     <sheet name="音效验收" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="背景音乐由程序直接写在代码中">配置方式!$D$29:$D$30</definedName>
+    <definedName name="背景音乐由程序直接写在代码中">配置方式!$D$17:$D$18</definedName>
     <definedName name="播放规则">音乐音效逻辑!$E$84:$F$86</definedName>
-    <definedName name="触发UI音效的控件单独配置音效">配置方式!$E$43:$E$45</definedName>
+    <definedName name="触发UI音效的控件单独配置音效">配置方式!$E$31:$E$33</definedName>
     <definedName name="当某个怪使用技能时_限定技能为大招技能与BOSS技能_复用技能不需要施法语音_设计避免即可__播放的音效">音乐音效逻辑!$H$61</definedName>
     <definedName name="施法语音无多语言需求_无论切换何种语言_只播放一种语音">音乐音效逻辑!$H$64</definedName>
     <definedName name="受击音效为怪物发出的音效_并非所有怪物都有_可能考虑稀有怪物或者有特点的怪物">音乐音效逻辑!#REF!</definedName>
     <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量">音乐音效逻辑!#REF!</definedName>
     <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量__受到治疗或者未命中_实际未扣除血量_不播放受击音效">音乐音效逻辑!#REF!</definedName>
-    <definedName name="在animation.xml中对应的技能下增加soundlist进行配置">配置方式!$D$48:$K$59</definedName>
-    <definedName name="在instance.csv表中增加1列backgroundmusic用于配置音乐编号">配置方式!$E$34:$E$35</definedName>
+    <definedName name="在animation.xml中对应的技能下增加soundlist进行配置">配置方式!$D$36:$K$47</definedName>
+    <definedName name="在instance.csv表中增加1列backgroundmusic用于配置音乐编号">配置方式!$E$22:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="271">
   <si>
     <t>文档名称</t>
   </si>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>表格形式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -405,46 +401,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>如</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型划分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗音乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTLM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆界面背景音乐 命名为 BGM_LOGIN.OGG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型_应用位置_区分标示_数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如应用位置已经可以进行区分，则无需区分标示与数字编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>辛炜</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -489,10 +445,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>音乐音效命名规则（包括资源与ID）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5秒么？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -925,10 +877,6 @@
   </si>
   <si>
     <t>背景音乐同时只会播放一首，当切换背景/场景时，前一首音乐停止，后一首音乐开始播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮音效 命名为 SE_BUTTON_CLICK_01.WAV</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1566,7 +1514,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1629,6 +1577,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="81" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="77" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1677,13 +1632,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="77" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1773,6 +1728,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1781,20 +1750,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2319,98 +2274,98 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+        <v>170</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -2436,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2451,7 +2406,7 @@
         <v>42213</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>21</v>
@@ -2466,10 +2421,10 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2478,26 +2433,26 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="H25" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="15" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C26" s="26">
         <v>42215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="25" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2506,7 +2461,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="H27" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2515,7 +2470,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="H28" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2524,18 +2479,18 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="H29" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C30" s="26">
         <v>42216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -2543,7 +2498,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2575,78 +2530,78 @@
         <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C34" s="27">
         <v>42216</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G34" s="15"/>
       <c r="K34" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="F35" s="15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="F36" s="15" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="F37" s="29" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="F38" s="29" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="F39" s="29" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="F40" s="15" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2687,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2756,7 +2711,7 @@
       <c r="A12" s="8"/>
       <c r="D12" s="6"/>
       <c r="F12" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2777,7 +2732,7 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D16" s="6"/>
       <c r="G16" s="2" t="s">
@@ -2786,7 +2741,7 @@
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="33">
       <c r="A17" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D17" s="6"/>
       <c r="G17" s="2" t="s">
@@ -2807,13 +2762,13 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>69</v>
@@ -2826,16 +2781,16 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -2845,7 +2800,7 @@
     </row>
     <row r="21" spans="1:15" ht="49.5">
       <c r="A21" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -2855,72 +2810,72 @@
     </row>
     <row r="22" spans="1:15">
       <c r="E22" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="F23" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="49.5">
       <c r="A24" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1">
       <c r="A25" s="8"/>
       <c r="D25" s="6"/>
       <c r="F25" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1">
       <c r="A26" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D27" s="6"/>
       <c r="F27" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="49.5">
       <c r="A28" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2932,17 +2887,17 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="14" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2958,7 +2913,7 @@
       <c r="D30" s="6"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2977,14 +2932,14 @@
     </row>
     <row r="32" spans="1:15">
       <c r="G32" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="A33" s="8"/>
       <c r="D33" s="6"/>
       <c r="G33" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3027,10 +2982,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>41</v>
@@ -3051,7 +3006,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="B44" s="13" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>44</v>
@@ -3060,19 +3015,19 @@
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:18">
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:18">
       <c r="B47" s="13" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>45</v>
@@ -3088,10 +3043,10 @@
     </row>
     <row r="49" spans="1:14" ht="33">
       <c r="A49" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
@@ -3129,10 +3084,10 @@
     </row>
     <row r="56" spans="1:14" s="2" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D56" s="6"/>
       <c r="H56" s="2" t="s">
@@ -3154,7 +3109,7 @@
     <row r="59" spans="1:14" s="2" customFormat="1">
       <c r="A59" s="8"/>
       <c r="C59" s="13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D59" s="6"/>
       <c r="H59" s="2" t="s">
@@ -3163,7 +3118,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>53</v>
@@ -3171,21 +3126,21 @@
     </row>
     <row r="61" spans="1:14" ht="33">
       <c r="A61" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="2" customFormat="1" ht="49.5">
       <c r="A62" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D62" s="6"/>
       <c r="H62" s="2" t="s">
@@ -3194,15 +3149,15 @@
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" ht="49.5">
       <c r="A63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -3217,7 +3172,7 @@
       <c r="D64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -3228,7 +3183,7 @@
     </row>
     <row r="65" spans="1:7" ht="33">
       <c r="A65" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -3236,13 +3191,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3267,10 +3222,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3287,10 +3242,10 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1">
       <c r="A76" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D76" s="6"/>
       <c r="F76" s="2" t="s">
@@ -3342,7 +3297,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="C83" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -3350,10 +3305,10 @@
     </row>
     <row r="84" spans="1:18">
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F84" s="15"/>
       <c r="P84" s="2"/>
@@ -3363,7 +3318,7 @@
     <row r="85" spans="1:18">
       <c r="E85" s="15"/>
       <c r="F85" s="15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -3371,32 +3326,32 @@
     </row>
     <row r="86" spans="1:18" ht="33">
       <c r="A86" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A60 A62:A197 A1:A49">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A61&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3411,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:K48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3427,145 +3382,413 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="3:14">
+      <c r="C1" s="49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="D4" s="2" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="3:14">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="E5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="E6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="E7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="E8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="F11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="F13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="E15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="F16" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="F17" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="C18" s="17"/>
+      <c r="D18" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="F19" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="C20" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="G21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="G22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" ht="49.5">
+      <c r="A22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="9"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="F24" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="G25" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="A25" s="9"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:16" ht="33">
+      <c r="A26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="15" t="s">
-        <v>231</v>
-      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:16">
+      <c r="A27" s="9"/>
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -3574,9 +3797,8 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="C28" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -3587,10 +3809,11 @@
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="C29" s="17"/>
-      <c r="D29" s="15" t="s">
-        <v>233</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="C29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -3600,9 +3823,10 @@
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:16">
+      <c r="A30" s="9"/>
       <c r="C30" s="17"/>
       <c r="D30" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -3611,15 +3835,14 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="9"/>
       <c r="C31" s="17"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3629,12 +3852,14 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="9"/>
-      <c r="C32" s="17" t="s">
-        <v>235</v>
-      </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -3644,10 +3869,10 @@
     <row r="33" spans="1:11">
       <c r="A33" s="9"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3655,32 +3880,27 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" ht="49.5">
-      <c r="A34" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="17"/>
+    <row r="34" spans="1:11">
+      <c r="A34" s="9"/>
+      <c r="C34" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>237</v>
-      </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="9"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="D35" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3691,7 +3911,9 @@
     <row r="36" spans="1:11">
       <c r="A36" s="9"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -3702,300 +3924,127 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="9"/>
-      <c r="C37" s="17"/>
       <c r="D37" s="15" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" ht="33">
-      <c r="A38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="17"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="9"/>
-      <c r="C39" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="33">
+      <c r="A39" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="9"/>
-      <c r="C40" s="17"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="9"/>
-      <c r="C41" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="9"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="9"/>
-      <c r="C43" s="17"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="9"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="9"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="9"/>
-      <c r="C46" s="17" t="s">
-        <v>248</v>
-      </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="9"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="15" t="s">
-        <v>249</v>
-      </c>
+      <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="9"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="D49" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="33">
-      <c r="A51" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="9"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="9"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="9"/>
-      <c r="B56" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
+      <c r="C48" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="9"/>
-      <c r="B57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="9"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="C60" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="D61" s="2" t="s">
-        <v>209</v>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A1048576 A1:A49">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A39:A1048576 A1:A37">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4018,39 +4067,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4063,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4072,32 +4121,32 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="48" customFormat="1">
-      <c r="A1" s="48" t="s">
-        <v>283</v>
+    <row r="1" spans="1:4" s="32" customFormat="1">
+      <c r="A1" s="32" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4105,52 +4154,52 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="D11" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4183,7 +4232,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4300,7 +4349,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="C62" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4324,13 +4373,13 @@
     <row r="69" spans="1:6">
       <c r="A69" s="6"/>
       <c r="C69" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6"/>
       <c r="C70" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4339,74 +4388,74 @@
     <row r="72" spans="1:6">
       <c r="A72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6"/>
-      <c r="D74" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>260</v>
+      <c r="D74" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6"/>
-      <c r="D75" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>257</v>
+      <c r="D75" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="6"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="6"/>
       <c r="C77" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/gd/音乐音效相关/音乐音效逻辑.xlsx
+++ b/gd/音乐音效相关/音乐音效逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,10 @@
   </sheets>
   <definedNames>
     <definedName name="背景音乐由程序直接写在代码中">配置方式!$D$17:$D$18</definedName>
-    <definedName name="播放规则">音乐音效逻辑!$E$84:$F$86</definedName>
+    <definedName name="播放规则">音乐音效逻辑!$E$85:$F$87</definedName>
     <definedName name="触发UI音效的控件单独配置音效">配置方式!$E$31:$E$33</definedName>
-    <definedName name="当某个怪使用技能时_限定技能为大招技能与BOSS技能_复用技能不需要施法语音_设计避免即可__播放的音效">音乐音效逻辑!$H$61</definedName>
-    <definedName name="施法语音无多语言需求_无论切换何种语言_只播放一种语音">音乐音效逻辑!$H$64</definedName>
+    <definedName name="当某个怪使用技能时_限定技能为大招技能与BOSS技能_复用技能不需要施法语音_设计避免即可__播放的音效">音乐音效逻辑!$H$62</definedName>
+    <definedName name="施法语音无多语言需求_无论切换何种语言_只播放一种语音">音乐音效逻辑!$H$65</definedName>
     <definedName name="受击音效为怪物发出的音效_并非所有怪物都有_可能考虑稀有怪物或者有特点的怪物">音乐音效逻辑!#REF!</definedName>
     <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量">音乐音效逻辑!#REF!</definedName>
     <definedName name="受击音效只有当目标受到伤害时才会播放_实际扣除血量__受到治疗或者未命中_实际未扣除血量_不播放受击音效">音乐音效逻辑!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
   <si>
     <t>文档名称</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>当对应控件无特殊需求时，播放默认音效即可</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当对应控件有特殊需求时，可以为其配置特殊音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -313,10 +309,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>当切换回本产品时，音乐继续播放，音效不在进行播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当本产品未被激活时（最小化或切换其他应用），音乐音效停止播放</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1082,6 +1074,18 @@
   </si>
   <si>
     <t>8/18验收结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对应控件无特殊需求时，配置默认音效即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当切换回本产品时，音乐,音效继续播放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音轨为内部调整功能，不需要展现给玩家</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1218,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,7 +1524,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1584,6 +1594,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1632,13 +1649,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1728,6 +1739,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1736,20 +1761,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2274,98 +2285,98 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+        <v>168</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -2391,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2406,7 +2417,7 @@
         <v>42213</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>21</v>
@@ -2421,10 +2432,10 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2433,26 +2444,26 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="H25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C26" s="26">
         <v>42215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2461,7 +2472,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="H27" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2470,7 +2481,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="H28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2479,18 +2490,18 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="H29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="26">
         <v>42216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -2498,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2530,78 +2541,78 @@
         <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="27">
         <v>42216</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G34" s="15"/>
       <c r="K34" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="F35" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="F36" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="F37" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="F38" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="F39" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="F40" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2640,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R86"/>
+  <dimension ref="A2:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82:J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2654,123 +2665,114 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="8"/>
       <c r="D7" s="6"/>
       <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="8"/>
       <c r="D8" s="6"/>
       <c r="F8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="8"/>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="D10" s="6" t="s">
+      <c r="F9" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="8"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="1" t="s">
+    <row r="12" spans="1:9">
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
-      <c r="A12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
-      <c r="A14" s="8"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="A15" s="8"/>
       <c r="D15" s="6"/>
-      <c r="F15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
-      <c r="A16" s="10" t="s">
-        <v>145</v>
-      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
+      <c r="A16" s="8"/>
       <c r="D16" s="6"/>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="33">
-      <c r="A17" s="8" t="s">
-        <v>123</v>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1">
+      <c r="A17" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="6"/>
       <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1">
-      <c r="A18" s="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="33">
+      <c r="A18" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1">
+      <c r="A19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="15"/>
@@ -2781,16 +2783,16 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>218</v>
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -2798,9 +2800,18 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="49.5">
+    <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -2808,96 +2819,84 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="E22" s="2" t="s">
+    <row r="22" spans="1:15" ht="49.5">
+      <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="E23" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="F24" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="49.5">
+      <c r="A25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1">
+      <c r="A26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1">
+      <c r="A27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="F28" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="F23" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="49.5">
-      <c r="A24" s="8" t="s">
+    <row r="29" spans="1:15" ht="49.5">
+      <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1">
-      <c r="A25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="2" customFormat="1">
-      <c r="A26" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1">
-      <c r="A27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="F27" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="49.5">
-      <c r="A28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2907,13 +2906,19 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1">
-      <c r="A30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="6"/>
+    <row r="30" spans="1:15">
+      <c r="A30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2924,255 +2929,257 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="6"/>
-      <c r="F31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="G32" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="2" customFormat="1">
-      <c r="A33" s="8"/>
-      <c r="D33" s="6"/>
-      <c r="G33" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="D35" s="6" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1">
+      <c r="A32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="G33" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="2" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="G34" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="D36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="E36" s="1" t="s">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="F37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:18">
       <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="F39" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="G39" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:18">
       <c r="G40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="G42" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:18">
       <c r="G43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="G44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="B44" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P45" s="5"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:18">
       <c r="B46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P46" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="B47" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="F48" s="1" t="s">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="F49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="54"/>
+    </row>
+    <row r="50" spans="1:14" ht="33">
+      <c r="A50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="33">
-      <c r="A49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="1" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="E52" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="F52" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="F53" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="F54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="G55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="G54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="2" customFormat="1">
-      <c r="A55" s="8"/>
-      <c r="D55" s="6"/>
-      <c r="H55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="56" spans="1:14" s="2" customFormat="1">
-      <c r="A56" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="A56" s="8"/>
       <c r="D56" s="6"/>
       <c r="H56" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="G57" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="2" customFormat="1">
-      <c r="A58" s="8"/>
-      <c r="D58" s="6"/>
-      <c r="H58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="2" customFormat="1">
+      <c r="A57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="H57" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="G58" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="2" customFormat="1">
       <c r="A59" s="8"/>
-      <c r="C59" s="13" t="s">
-        <v>169</v>
-      </c>
       <c r="D59" s="6"/>
       <c r="H59" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="33">
-      <c r="A61" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" ht="49.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="2" customFormat="1">
+      <c r="A60" s="8"/>
+      <c r="C60" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="H60" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="33">
       <c r="A62" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="H62" s="2" t="s">
-        <v>58</v>
+        <v>147</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" ht="49.5">
       <c r="A63" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-    </row>
-    <row r="64" spans="1:14" s="2" customFormat="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="13"/>
+      <c r="H63" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="2" customFormat="1" ht="49.5">
+      <c r="A64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -3181,183 +3188,201 @@
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
     </row>
-    <row r="65" spans="1:7" ht="33">
-      <c r="A65" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="13" t="s">
+    <row r="65" spans="1:14" s="2" customFormat="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="13"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+    </row>
+    <row r="66" spans="1:14" ht="33">
+      <c r="A66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:14">
+      <c r="G68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="G69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="G70" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="F72" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="B74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="G67" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="G68" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="G69" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="F71" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="D74" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="2" customFormat="1">
-      <c r="A75" s="8"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="2" customFormat="1">
-      <c r="A76" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>150</v>
-      </c>
+    <row r="75" spans="1:14">
+      <c r="D75" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="2" customFormat="1">
+      <c r="A76" s="8"/>
       <c r="D76" s="6"/>
-      <c r="F76" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="2" customFormat="1">
-      <c r="A77" s="8"/>
+      <c r="E76" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="2" customFormat="1">
+      <c r="A77" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="F77" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="2" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="2" customFormat="1">
       <c r="A78" s="8"/>
       <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" s="2" customFormat="1">
+      <c r="F78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="2" customFormat="1">
       <c r="A79" s="8"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="80" spans="1:14" s="2" customFormat="1">
       <c r="A80" s="8"/>
       <c r="D80" s="6"/>
-      <c r="F80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="2" customFormat="1">
+      <c r="A81" s="8"/>
+      <c r="D81" s="6"/>
+      <c r="F81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="F82" s="2"/>
+      <c r="G82" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:18" s="2" customFormat="1">
+      <c r="A83" s="8"/>
+      <c r="D83" s="6"/>
+      <c r="F83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18" s="2" customFormat="1">
-      <c r="A82" s="8"/>
-      <c r="D82" s="6"/>
-      <c r="F82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:18">
-      <c r="C83" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="B84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F84" s="15"/>
+      <c r="C84" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="E85" s="15"/>
-      <c r="F85" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" s="15"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" ht="33">
-      <c r="A86" s="8" t="s">
-        <v>141</v>
-      </c>
+    <row r="86" spans="1:18">
       <c r="E86" s="15"/>
       <c r="F86" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" ht="33">
+      <c r="A87" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A60 A62:A197 A1:A49">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="A52:A61 A63:A198 A1:A50">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A61&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A62&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A16" location="播放规则" display="已补充"/>
-    <hyperlink ref="A26" location="播放规则" display="已补充"/>
+    <hyperlink ref="A17" location="播放规则" display="已补充"/>
+    <hyperlink ref="A27" location="播放规则" display="已补充"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3368,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3383,248 +3408,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="3:14">
+      <c r="C2" s="33"/>
+      <c r="D2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-    </row>
-    <row r="2" spans="3:14">
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-    </row>
-    <row r="3" spans="3:14">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-    </row>
-    <row r="4" spans="3:14">
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-    </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="52" t="s">
+      <c r="F6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="F8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-    </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="50" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-    </row>
-    <row r="9" spans="3:14">
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-    </row>
-    <row r="10" spans="3:14">
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="3:14">
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-    </row>
-    <row r="12" spans="3:14">
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-    </row>
-    <row r="13" spans="3:14">
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" spans="3:14">
       <c r="C16" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -3638,7 +3663,7 @@
     <row r="17" spans="1:16">
       <c r="C17" s="17"/>
       <c r="D17" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -3651,7 +3676,7 @@
     <row r="18" spans="1:16">
       <c r="C18" s="17"/>
       <c r="D18" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -3679,7 +3704,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="C20" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -3694,7 +3719,7 @@
       <c r="A21" s="9"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -3706,15 +3731,15 @@
     </row>
     <row r="22" spans="1:16" ht="49.5">
       <c r="A22" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -3728,7 +3753,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -3753,7 +3778,7 @@
       <c r="A25" s="9"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3765,15 +3790,15 @@
     </row>
     <row r="26" spans="1:16" ht="33">
       <c r="A26" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -3787,7 +3812,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -3811,7 +3836,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="9"/>
       <c r="C29" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -3826,7 +3851,7 @@
       <c r="A30" s="9"/>
       <c r="C30" s="17"/>
       <c r="D30" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -3841,7 +3866,7 @@
       <c r="C31" s="17"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -3855,10 +3880,10 @@
       <c r="C32" s="17"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3871,7 +3896,7 @@
       <c r="C33" s="17"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -3883,7 +3908,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="9"/>
       <c r="C34" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -3898,7 +3923,7 @@
       <c r="A35" s="9"/>
       <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -3912,7 +3937,7 @@
       <c r="A36" s="9"/>
       <c r="C36" s="17"/>
       <c r="D36" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -3925,7 +3950,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="9"/>
       <c r="D37" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -3934,22 +3959,22 @@
     <row r="38" spans="1:11">
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:11" ht="33">
       <c r="A39" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -3957,7 +3982,7 @@
       <c r="A40" s="9"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -3973,7 +3998,7 @@
       <c r="A42" s="9"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -3983,30 +4008,30 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="9"/>
       <c r="B44" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -4016,7 +4041,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G46" s="15"/>
     </row>
@@ -4028,23 +4053,23 @@
     </row>
     <row r="48" spans="1:11">
       <c r="C48" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A1048576 A1:A37">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4067,39 +4092,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4123,30 +4148,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1">
       <c r="A1" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4154,52 +4179,52 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="D11" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="D12" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4232,7 +4257,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4349,7 +4374,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="C62" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4373,13 +4398,13 @@
     <row r="69" spans="1:6">
       <c r="A69" s="6"/>
       <c r="C69" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6"/>
       <c r="C70" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4388,43 +4413,43 @@
     <row r="72" spans="1:6">
       <c r="A72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6"/>
       <c r="D74" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6"/>
       <c r="D75" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4435,27 +4460,27 @@
     <row r="77" spans="1:6">
       <c r="A77" s="6"/>
       <c r="C77" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/gd/音乐音效相关/音乐音效逻辑.xlsx
+++ b/gd/音乐音效相关/音乐音效逻辑.xlsx
@@ -25,7 +25,7 @@
     <definedName name="在animation.xml中对应的技能下增加soundlist进行配置">配置方式!$D$36:$K$47</definedName>
     <definedName name="在instance.csv表中增加1列backgroundmusic用于配置音乐编号">配置方式!$E$22:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -293,10 +293,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>播放时间从登陆界面出现开始播放，至切入loading界面为止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>背景音乐为非副本中播放的音乐（主要登陆界面、主界面）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -864,10 +860,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>进入副本后（开始loading界面），即视为副本开始，副本音乐开始播放</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>背景音乐同时只会播放一首，当切换背景/场景时，前一首音乐停止，后一首音乐开始播放</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1086,6 +1078,14 @@
   </si>
   <si>
     <t>音轨为内部调整功能，不需要展现给玩家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本loading界面结束，副本音乐开始播放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放时间从登陆界面出现开始播放，至loading界面切出为止</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1218,7 +1218,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,6 +1234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,7 +1530,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,6 +1607,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1649,7 +1656,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1739,6 +1747,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1747,20 +1769,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2285,98 +2293,98 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+        <v>167</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -2402,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2417,7 +2425,7 @@
         <v>42213</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>21</v>
@@ -2432,10 +2440,10 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2444,26 +2452,26 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="H25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="26">
         <v>42215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2472,7 +2480,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="H27" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2481,7 +2489,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="H28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2490,18 +2498,18 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="H29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="26">
         <v>42216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -2509,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2541,78 +2549,78 @@
         <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="27">
         <v>42216</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="F34" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="15"/>
       <c r="K34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="F35" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="F36" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="F37" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="F38" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="F39" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="F40" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2653,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82:J82"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2665,86 +2673,93 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="F5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
+    <row r="7" spans="1:11" s="2" customFormat="1">
       <c r="A7" s="8"/>
       <c r="D7" s="6"/>
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
+    <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="8"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1">
       <c r="A9" s="8"/>
       <c r="D9" s="6"/>
-      <c r="F9" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="F9" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1">
       <c r="A10" s="8"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1">
+    <row r="13" spans="1:11" s="2" customFormat="1">
       <c r="A13" s="8"/>
       <c r="D13" s="6"/>
       <c r="F13" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1">
       <c r="A15" s="8"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
+    <row r="16" spans="1:11" s="2" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="6"/>
       <c r="F16" s="2" t="s">
@@ -2753,7 +2768,7 @@
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="6"/>
       <c r="G17" s="2" t="s">
@@ -2762,12 +2777,14 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="33">
       <c r="A18" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1">
       <c r="A19" s="8"/>
@@ -2783,13 +2800,13 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>68</v>
@@ -2802,16 +2819,16 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -2821,7 +2838,7 @@
     </row>
     <row r="22" spans="1:15" ht="49.5">
       <c r="A22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -2831,94 +2848,94 @@
     </row>
     <row r="23" spans="1:15">
       <c r="E23" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="F24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="49.5">
       <c r="A25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1">
       <c r="A26" s="8"/>
       <c r="D26" s="6"/>
       <c r="F26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1">
       <c r="A27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="6"/>
       <c r="F28" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="49.5">
       <c r="A29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="G29" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2934,7 +2951,7 @@
       <c r="D31" s="6"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -2948,19 +2965,19 @@
       <c r="A32" s="8"/>
       <c r="D32" s="6"/>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="G33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1">
       <c r="A34" s="8"/>
       <c r="D34" s="6"/>
       <c r="G34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3003,10 +3020,10 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>41</v>
@@ -3027,7 +3044,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>44</v>
@@ -3036,19 +3053,19 @@
     </row>
     <row r="46" spans="1:18">
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:18">
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:18">
       <c r="B48" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>45</v>
@@ -3059,16 +3076,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="F49" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="54"/>
+        <v>267</v>
+      </c>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:14" ht="33">
       <c r="A50" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>46</v>
@@ -3106,10 +3123,10 @@
     </row>
     <row r="57" spans="1:14" s="2" customFormat="1">
       <c r="A57" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="6"/>
       <c r="H57" s="2" t="s">
@@ -3131,7 +3148,7 @@
     <row r="60" spans="1:14" s="2" customFormat="1">
       <c r="A60" s="8"/>
       <c r="C60" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="6"/>
       <c r="H60" s="2" t="s">
@@ -3140,7 +3157,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>52</v>
@@ -3148,21 +3165,21 @@
     </row>
     <row r="62" spans="1:14" ht="33">
       <c r="A62" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" ht="49.5">
       <c r="A63" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="6"/>
       <c r="H63" s="2" t="s">
@@ -3171,15 +3188,15 @@
     </row>
     <row r="64" spans="1:14" s="2" customFormat="1" ht="49.5">
       <c r="A64" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -3194,7 +3211,7 @@
       <c r="D65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -3205,7 +3222,7 @@
     </row>
     <row r="66" spans="1:14" ht="33">
       <c r="A66" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>58</v>
@@ -3213,13 +3230,13 @@
     </row>
     <row r="67" spans="1:14">
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3244,41 +3261,41 @@
     </row>
     <row r="74" spans="1:14">
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="D75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1">
       <c r="A76" s="8"/>
       <c r="D76" s="6"/>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="2" customFormat="1">
       <c r="A77" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="6"/>
       <c r="F77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="2" customFormat="1">
       <c r="A78" s="8"/>
       <c r="D78" s="6"/>
       <c r="F78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="2" customFormat="1">
@@ -3289,25 +3306,25 @@
       <c r="A80" s="8"/>
       <c r="D80" s="6"/>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="2" customFormat="1">
       <c r="A81" s="8"/>
       <c r="D81" s="6"/>
       <c r="F81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:18">
       <c r="F82" s="2"/>
-      <c r="G82" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
+      <c r="G82" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
@@ -3316,13 +3333,13 @@
       <c r="A83" s="8"/>
       <c r="D83" s="6"/>
       <c r="F83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:18">
       <c r="C84" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -3330,10 +3347,10 @@
     </row>
     <row r="85" spans="1:18">
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F85" s="15"/>
       <c r="P85" s="2"/>
@@ -3343,7 +3360,7 @@
     <row r="86" spans="1:18">
       <c r="E86" s="15"/>
       <c r="F86" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -3351,32 +3368,32 @@
     </row>
     <row r="87" spans="1:18" ht="33">
       <c r="A87" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A61 A63:A198 A1:A50">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A62&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3409,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="3:14">
       <c r="C1" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -3426,7 +3443,7 @@
     <row r="2" spans="3:14">
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -3456,7 +3473,7 @@
     <row r="4" spans="3:14">
       <c r="C4" s="33"/>
       <c r="D4" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34"/>
@@ -3473,10 +3490,10 @@
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
       <c r="E5" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -3491,10 +3508,10 @@
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
       <c r="E6" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -3509,10 +3526,10 @@
       <c r="C7" s="33"/>
       <c r="D7" s="34"/>
       <c r="E7" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -3527,10 +3544,10 @@
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
       <c r="E8" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -3559,7 +3576,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -3576,7 +3593,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -3591,7 +3608,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -3608,7 +3625,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -3649,7 +3666,7 @@
     </row>
     <row r="16" spans="3:14">
       <c r="C16" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -3663,7 +3680,7 @@
     <row r="17" spans="1:16">
       <c r="C17" s="17"/>
       <c r="D17" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -3676,7 +3693,7 @@
     <row r="18" spans="1:16">
       <c r="C18" s="17"/>
       <c r="D18" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -3704,7 +3721,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="C20" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -3719,7 +3736,7 @@
       <c r="A21" s="9"/>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -3731,15 +3748,15 @@
     </row>
     <row r="22" spans="1:16" ht="49.5">
       <c r="A22" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -3753,7 +3770,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -3778,7 +3795,7 @@
       <c r="A25" s="9"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3790,15 +3807,15 @@
     </row>
     <row r="26" spans="1:16" ht="33">
       <c r="A26" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -3812,7 +3829,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -3836,7 +3853,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="9"/>
       <c r="C29" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -3851,7 +3868,7 @@
       <c r="A30" s="9"/>
       <c r="C30" s="17"/>
       <c r="D30" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -3866,7 +3883,7 @@
       <c r="C31" s="17"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -3880,10 +3897,10 @@
       <c r="C32" s="17"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3896,7 +3913,7 @@
       <c r="C33" s="17"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -3908,7 +3925,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="9"/>
       <c r="C34" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -3923,7 +3940,7 @@
       <c r="A35" s="9"/>
       <c r="C35" s="17"/>
       <c r="D35" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -3937,7 +3954,7 @@
       <c r="A36" s="9"/>
       <c r="C36" s="17"/>
       <c r="D36" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -3950,7 +3967,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="9"/>
       <c r="D37" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -3959,22 +3976,22 @@
     <row r="38" spans="1:11">
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:11" ht="33">
       <c r="A39" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -3982,7 +3999,7 @@
       <c r="A40" s="9"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -3998,7 +4015,7 @@
       <c r="A42" s="9"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -4008,30 +4025,30 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="9"/>
       <c r="B44" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -4041,7 +4058,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="15"/>
     </row>
@@ -4053,23 +4070,23 @@
     </row>
     <row r="48" spans="1:11">
       <c r="C48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A1048576 A1:A37">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4092,39 +4109,39 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4148,30 +4165,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1">
       <c r="A1" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4179,52 +4196,52 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="D11" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="D12" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4257,7 +4274,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4374,7 +4391,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="C62" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4398,13 +4415,13 @@
     <row r="69" spans="1:6">
       <c r="A69" s="6"/>
       <c r="C69" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="6"/>
       <c r="C70" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4413,43 +4430,43 @@
     <row r="72" spans="1:6">
       <c r="A72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6"/>
       <c r="D74" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6"/>
       <c r="D75" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4460,27 +4477,27 @@
     <row r="77" spans="1:6">
       <c r="A77" s="6"/>
       <c r="C77" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
